--- a/docs/_src/web技术.xlsx
+++ b/docs/_src/web技术.xlsx
@@ -65,7 +65,7 @@
     <t>Qt</t>
   </si>
   <si>
-    <t>flutter</t>
+    <t>Flutter</t>
   </si>
   <si>
     <t>Android</t>
@@ -99,6 +99,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="30"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>✅</t>
     </r>
     <r>
@@ -134,6 +141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="30"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>✅</t>
     </r>
     <r>
@@ -1801,8 +1815,8 @@
   <sheetPr/>
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2041,6 +2055,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
+    <row r="19" ht="17.55"/>
     <row r="20" ht="40.75" spans="3:13">
       <c r="C20" s="3" t="s">
         <v>0</v>
